--- a/biology/Zoologie/Eirenis_collaris/Eirenis_collaris.xlsx
+++ b/biology/Zoologie/Eirenis_collaris/Eirenis_collaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eirenis collaris est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eirenis collaris est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le sud de l'Arménie ;
 en Azerbaïdjan ;
 en Bulgarie ;
@@ -550,9 +564,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Ménétries indique que ce serpent a le dos brun clair et présente une collier noir se terminant en pointe sous le cou sans que les deux extrémités se rejoignent.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Ménétries indique que ce serpent a le dos brun clair et présente une collier noir se terminant en pointe sous le cou sans que les deux extrémités se rejoignent.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Eirenis collaris collaris (Ménétries, 1832)
 Eirenis collaris macrospilotus (Werner, 1904) - Turquie</t>
         </is>
@@ -613,7 +631,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce pourrait être synonyme de Eirenis rothii.
 </t>
@@ -644,9 +664,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin collaris, « collier », fait référence à sa livrée[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin collaris, « collier », fait référence à sa livrée.
 </t>
         </is>
       </c>
@@ -675,7 +697,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ménétries, 1832 : Catalogue raisonné des objets de zoologie recueillis dans un voyage au Caucase et jusqu’aux frontières actuelles de la Perse, p. 1-330 (texte intégral).
 Werner, 1903 : Über Reptilien und Batrachier aus Guatemala und China in der zoologischen Staats-Sammlung in München nebst einem Anhang über seltene Formen aus anderen Gegenden. Abhandlungen der Königlich Bayerischen Akademie der Wissenschaften, sér. 2, vol. 22, p. 343-384 (texte intégral).</t>
